--- a/res/testcase/monthticket/parkCustomerInfo.xlsx
+++ b/res/testcase/monthticket/parkCustomerInfo.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
-    <sheet name="001_addCarUserInfo" sheetId="2" r:id="rId2"/>
-    <sheet name="002_editCarUserInfo" sheetId="3" r:id="rId3"/>
-    <sheet name="003_delCarUserInfo" sheetId="6" r:id="rId4"/>
+    <sheet name="001_addParkCustomerInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="002_editParkCustomerInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="003_delParkCustomerInfo" sheetId="6" r:id="rId4"/>
+    <sheet name="004_exportCarUserInfo" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>动作</t>
   </si>
@@ -557,6 +558,21 @@
   </si>
   <si>
     <t>删除成功</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>ParkCustomerInfoPage.导出</t>
+  </si>
+  <si>
+    <t>2导出车主管理界面</t>
+  </si>
+  <si>
+    <t>导出停车场用户成功</t>
+  </si>
+  <si>
+    <t>3操作成功</t>
   </si>
 </sst>
 </file>
@@ -564,10 +580,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -586,38 +602,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,15 +667,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,7 +684,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,47 +715,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -723,7 +731,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,31 +760,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,151 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,26 +969,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,17 +1014,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,39 +1066,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1058,10 +1074,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,133 +1086,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1934,7 +1950,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2386,8 +2402,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2648,7 +2664,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2878,4 +2894,195 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C4 C11:C12">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 B9 C9 C10">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/res/testcase/monthticket/parkCustomerInfo.xlsx
+++ b/res/testcase/monthticket/parkCustomerInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" activeTab="4"/>
+    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>动作</t>
   </si>
@@ -377,7 +377,7 @@
     <t>ParkCustomerInfoPage.车牌号码</t>
   </si>
   <si>
-    <t>${001_addCarUserInfo}.车牌号</t>
+    <t>${001_addParkCustomerInfo}.车牌号</t>
   </si>
   <si>
     <t>12</t>
@@ -392,18 +392,18 @@
     <t>13</t>
   </si>
   <si>
+    <t>输入公司名称</t>
+  </si>
+  <si>
+    <t>ParkCustomerInfoPage.公司名称</t>
+  </si>
+  <si>
+    <t>艾科技术</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>输入公司名称</t>
-  </si>
-  <si>
-    <t>ParkCustomerInfoPage.公司名称</t>
-  </si>
-  <si>
-    <t>艾科技术</t>
-  </si>
-  <si>
     <t>输入部门</t>
   </si>
   <si>
@@ -413,103 +413,100 @@
     <t>技术部</t>
   </si>
   <si>
+    <t>输入地址</t>
+  </si>
+  <si>
+    <t>ParkCustomerInfoPage.地址</t>
+  </si>
+  <si>
+    <t>桂城街道瀚天科技城</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>输入地址</t>
-  </si>
-  <si>
-    <t>ParkCustomerInfoPage.地址</t>
-  </si>
-  <si>
-    <t>桂城街道瀚天科技城</t>
+    <t>输入房间号</t>
+  </si>
+  <si>
+    <t>ParkCustomerInfoPage.房间号</t>
+  </si>
+  <si>
+    <t>101001</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>输入房间号</t>
-  </si>
-  <si>
-    <t>ParkCustomerInfoPage.房间号</t>
-  </si>
-  <si>
-    <t>101001</t>
+    <t>输入身份证号</t>
+  </si>
+  <si>
+    <t>ParkCustomerInfoPage.身份证号</t>
+  </si>
+  <si>
+    <t>411081199004235955</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>输入身份证号</t>
-  </si>
-  <si>
-    <t>ParkCustomerInfoPage.身份证号</t>
-  </si>
-  <si>
-    <t>411081199004235955</t>
+    <t>输入备注1</t>
+  </si>
+  <si>
+    <t>ParkCustomerInfoPage.备注1</t>
+  </si>
+  <si>
+    <t>UI自动化1</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>输入备注1</t>
-  </si>
-  <si>
-    <t>ParkCustomerInfoPage.备注1</t>
-  </si>
-  <si>
-    <t>UI自动化1</t>
+    <t>输入备注2</t>
+  </si>
+  <si>
+    <t>ParkCustomerInfoPage.备注2</t>
+  </si>
+  <si>
+    <t>UI自动化2</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>输入备注2</t>
-  </si>
-  <si>
-    <t>ParkCustomerInfoPage.备注2</t>
-  </si>
-  <si>
-    <t>UI自动化2</t>
+    <t>输入备注3</t>
+  </si>
+  <si>
+    <t>ParkCustomerInfoPage.备注3</t>
+  </si>
+  <si>
+    <t>UI自动化3</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>输入备注3</t>
-  </si>
-  <si>
-    <t>ParkCustomerInfoPage.备注3</t>
-  </si>
-  <si>
-    <t>UI自动化3</t>
+    <t>2车主新增管理</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>2车主新增管理</t>
+    <t>点击确定</t>
+  </si>
+  <si>
+    <t>ParkCustomerInfoPage.确认-提示</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>点击确定</t>
-  </si>
-  <si>
-    <t>ParkCustomerInfoPage.确认-提示</t>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>ParkCustomerInfoPage.操作成功-提示</t>
   </si>
   <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>ParkCustomerInfoPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>25</t>
   </si>
   <si>
     <t>3保存后截图</t>
@@ -580,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -602,50 +599,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,16 +652,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,23 +668,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,10 +683,47 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -731,15 +736,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,187 +757,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,6 +966,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -980,6 +1016,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,30 +1055,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1031,41 +1063,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1074,10 +1071,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,133 +1083,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1947,10 +1944,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1959,7 +1956,7 @@
     <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.875" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2164,35 +2161,38 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" ht="33" customHeight="1" spans="1:4">
+    <row r="14" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>121</v>
+      <c r="B14" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:5">
@@ -2200,194 +2200,177 @@
         <v>86</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" ht="33" customHeight="1" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" ht="33" customHeight="1" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" ht="33" customHeight="1" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" ht="33" customHeight="1" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>153</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A26" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C43:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C42:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13 C14:C25">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C30">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32:C42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C41">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2403,7 +2386,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2500,13 +2483,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>101</v>
@@ -2517,13 +2500,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2539,7 +2522,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2547,13 +2530,13 @@
         <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2562,7 +2545,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -2571,7 +2554,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2586,7 +2569,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2594,13 +2577,13 @@
         <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -2615,10 +2598,10 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:5">
@@ -2632,7 +2615,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2664,7 +2647,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2760,16 +2743,16 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
@@ -2777,13 +2760,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2799,7 +2782,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
@@ -2807,13 +2790,13 @@
         <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2829,7 +2812,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
@@ -2843,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -2858,10 +2841,10 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:5">
@@ -2876,7 +2859,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2901,8 +2884,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2998,13 +2981,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3020,7 +3003,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3034,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -3049,10 +3032,10 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
@@ -3067,7 +3050,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
